--- a/Assetlist/Asset List GameLab2.xlsx
+++ b/Assetlist/Asset List GameLab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="136">
   <si>
     <t>Weapons</t>
   </si>
@@ -356,6 +356,75 @@
   </si>
   <si>
     <t>Weapons Inharitans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemies </t>
+  </si>
+  <si>
+    <t>Main character</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>HealthBar</t>
+  </si>
+  <si>
+    <t>ShieldBar</t>
+  </si>
+  <si>
+    <t>WeaponSelect</t>
+  </si>
+  <si>
+    <t>MiniMap</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>Animaties</t>
+  </si>
+  <si>
+    <t>Gun_009</t>
+  </si>
+  <si>
+    <t>Prioriteit</t>
+  </si>
+  <si>
+    <t>pilaar</t>
+  </si>
+  <si>
+    <t>Unwrape Pilaar</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Unwrape Crystal</t>
+  </si>
+  <si>
+    <t>pilaar_003</t>
+  </si>
+  <si>
+    <t>Crystal_003</t>
+  </si>
+  <si>
+    <t>Exploding OBJ_003</t>
+  </si>
+  <si>
+    <t>Boost/Jump_003</t>
+  </si>
+  <si>
+    <t>Unwrape Crystal_004</t>
+  </si>
+  <si>
+    <t>Unwrape Pilaar_004</t>
   </si>
 </sst>
 </file>
@@ -786,16 +855,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
@@ -807,7 +876,7 @@
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
@@ -823,8 +892,11 @@
       <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -838,8 +910,11 @@
       <c r="E2" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -853,8 +928,11 @@
       <c r="E3" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -870,8 +948,11 @@
       <c r="E4" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -887,8 +968,11 @@
       <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -904,8 +988,11 @@
       <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -921,8 +1008,11 @@
       <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -938,8 +1028,11 @@
       <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>42</v>
       </c>
@@ -952,8 +1045,11 @@
       <c r="E9" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -964,8 +1060,11 @@
       <c r="E10" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -976,8 +1075,11 @@
       <c r="E11" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -988,8 +1090,11 @@
       <c r="E12" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
@@ -1000,8 +1105,11 @@
       <c r="E13" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
@@ -1012,8 +1120,11 @@
       <c r="E14" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="8" t="s">
         <v>13</v>
@@ -1024,8 +1135,11 @@
       <c r="E15" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
@@ -1036,8 +1150,11 @@
       <c r="E16" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
         <v>13</v>
@@ -1048,8 +1165,11 @@
       <c r="E17" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
         <v>13</v>
@@ -1060,8 +1180,11 @@
       <c r="E18" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
         <v>14</v>
@@ -1072,8 +1195,11 @@
       <c r="E19" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>14</v>
@@ -1084,8 +1210,11 @@
       <c r="E20" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>14</v>
@@ -1096,14 +1225,17 @@
       <c r="E21" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -1115,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>48</v>
       </c>
@@ -1129,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>52</v>
       </c>
@@ -1142,8 +1274,11 @@
       <c r="E25" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1294,11 @@
       <c r="E26" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1176,8 +1314,11 @@
       <c r="E27" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1334,11 @@
       <c r="E28" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -1210,8 +1354,11 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -1227,8 +1374,11 @@
       <c r="E30" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1394,11 @@
       <c r="E31" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1261,8 +1414,11 @@
       <c r="E32" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>13</v>
       </c>
@@ -1278,8 +1434,11 @@
       <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>14</v>
       </c>
@@ -1295,8 +1454,11 @@
       <c r="E34" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>57</v>
       </c>
@@ -1309,8 +1471,11 @@
       <c r="E35" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>62</v>
       </c>
@@ -1323,8 +1488,11 @@
       <c r="E36" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>63</v>
       </c>
@@ -1337,8 +1505,11 @@
       <c r="E37" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>51</v>
       </c>
@@ -1351,8 +1522,11 @@
       <c r="E38" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>51</v>
       </c>
@@ -1365,8 +1539,11 @@
       <c r="E39" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>51</v>
       </c>
@@ -1379,8 +1556,11 @@
       <c r="E40" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
         <v>51</v>
       </c>
@@ -1393,9 +1573,14 @@
       <c r="E41" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
@@ -1405,9 +1590,14 @@
       <c r="E42" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
+      <c r="G42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
@@ -1417,9 +1607,14 @@
       <c r="E43" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+      <c r="G43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="C44" s="9" t="s">
         <v>14</v>
       </c>
@@ -1429,12 +1624,15 @@
       <c r="E44" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="E45" s="14"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -1448,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>48</v>
       </c>
@@ -1460,7 +1658,7 @@
       </c>
       <c r="E47" s="14"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>44</v>
       </c>
@@ -1473,8 +1671,11 @@
       <c r="E48" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
         <v>45</v>
       </c>
@@ -1487,8 +1688,11 @@
       <c r="E49" s="14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
         <v>49</v>
       </c>
@@ -1501,8 +1705,11 @@
       <c r="E50" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
         <v>50</v>
       </c>
@@ -1515,8 +1722,11 @@
       <c r="E51" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>12</v>
       </c>
@@ -1524,24 +1734,33 @@
         <v>19</v>
       </c>
       <c r="E52" s="14"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" s="8" t="s">
         <v>13</v>
       </c>
@@ -1551,8 +1770,11 @@
       <c r="E55" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" s="8" t="s">
         <v>13</v>
       </c>
@@ -1562,40 +1784,55 @@
       <c r="E56" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>68</v>
       </c>
@@ -1606,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>67</v>
       </c>
@@ -1620,7 +1857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>69</v>
       </c>
@@ -1633,8 +1870,11 @@
       <c r="E64" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>70</v>
       </c>
@@ -1647,8 +1887,11 @@
       <c r="E65" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>71</v>
       </c>
@@ -1661,8 +1904,11 @@
       <c r="E66" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>72</v>
       </c>
@@ -1675,8 +1921,11 @@
       <c r="E67" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>75</v>
       </c>
@@ -1689,8 +1938,11 @@
       <c r="E68" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>76</v>
       </c>
@@ -1703,8 +1955,11 @@
       <c r="E69" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>73</v>
       </c>
@@ -1717,8 +1972,11 @@
       <c r="E70" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>74</v>
       </c>
@@ -1731,8 +1989,11 @@
       <c r="E71" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" s="7" t="s">
         <v>12</v>
       </c>
@@ -1740,8 +2001,11 @@
         <v>18</v>
       </c>
       <c r="E72" s="14"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" s="7" t="s">
         <v>12</v>
       </c>
@@ -1749,24 +2013,33 @@
         <v>18</v>
       </c>
       <c r="E73" s="14"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C75" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C76" s="8" t="s">
         <v>13</v>
       </c>
@@ -1776,8 +2049,11 @@
       <c r="E76" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
         <v>13</v>
       </c>
@@ -1787,8 +2063,11 @@
       <c r="E77" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C78" s="8" t="s">
         <v>13</v>
       </c>
@@ -1798,8 +2077,11 @@
       <c r="E78" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" s="8" t="s">
         <v>13</v>
       </c>
@@ -1809,8 +2091,11 @@
       <c r="E79" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C80" s="8" t="s">
         <v>13</v>
       </c>
@@ -1820,8 +2105,11 @@
       <c r="E80" s="14" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
@@ -1829,8 +2117,11 @@
         <v>18</v>
       </c>
       <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
         <v>14</v>
       </c>
@@ -1838,16 +2129,22 @@
         <v>18</v>
       </c>
       <c r="E82" s="14"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C83" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +2152,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="14"/>
       <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
@@ -1863,71 +2161,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="C87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="C88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="C90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="5" t="s">
-        <v>10</v>
+      <c r="E90" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="14"/>
+      <c r="C91" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="5" t="s">
-        <v>10</v>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="14"/>
+      <c r="C92" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="6" t="s">
-        <v>11</v>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="14"/>
+      <c r="C93" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="6" t="s">
-        <v>11</v>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="14"/>
+      <c r="C94" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="14"/>
       <c r="C95" s="7" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +2268,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="14"/>
       <c r="C96" s="7" t="s">
         <v>12</v>
       </c>
@@ -1943,63 +2277,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="7" t="s">
-        <v>12</v>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="7" t="s">
-        <v>12</v>
+      <c r="E97" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
       <c r="C99" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="14"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="14"/>
       <c r="C100" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="8" t="s">
-        <v>13</v>
+      <c r="E100" s="14"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="14"/>
+      <c r="C101" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E101" s="14"/>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="8" t="s">
-        <v>13</v>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="14"/>
+      <c r="C102" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="14"/>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="14"/>
       <c r="C103" s="9" t="s">
         <v>14</v>
       </c>
@@ -2008,109 +2355,163 @@
       </c>
       <c r="E103" s="14"/>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="14"/>
-    </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="9" t="s">
-        <v>14</v>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="14"/>
-    </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E107" s="15" t="s">
+      <c r="E105" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C108" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="10" t="s">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E106" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="15"/>
-    </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="10" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="15" t="s">
+      <c r="E109" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="15"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C112" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C113" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
       <c r="C114" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C115" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C116" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C117" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F83">

--- a/Assetlist/Asset List GameLab2.xlsx
+++ b/Assetlist/Asset List GameLab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="180">
   <si>
     <t>Weapons</t>
   </si>
@@ -479,6 +479,84 @@
   </si>
   <si>
     <t>Punten</t>
+  </si>
+  <si>
+    <t>Crystal Concept</t>
+  </si>
+  <si>
+    <t>pilaar Concept</t>
+  </si>
+  <si>
+    <t>Pedestal_003</t>
+  </si>
+  <si>
+    <t>Stalagmiet/tiet_003</t>
+  </si>
+  <si>
+    <t>pedestal</t>
+  </si>
+  <si>
+    <t>stalagmieten</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>Gun_001</t>
+  </si>
+  <si>
+    <t>MainCh_001</t>
+  </si>
+  <si>
+    <t>MainCh_002</t>
+  </si>
+  <si>
+    <t>Ammo/Heal</t>
+  </si>
+  <si>
+    <t>Pilaar_001</t>
+  </si>
+  <si>
+    <t>Crystal_001</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Danial</t>
+  </si>
+  <si>
+    <t>Spawning</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Teleporter</t>
+  </si>
+  <si>
+    <t>secret rooms</t>
+  </si>
+  <si>
+    <t>Lootchest</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Harold/Danial</t>
+  </si>
+  <si>
+    <t>Treasure/Loot</t>
+  </si>
+  <si>
+    <t>Engery</t>
   </si>
 </sst>
 </file>
@@ -488,7 +566,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,8 +574,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +651,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -568,10 +666,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -601,8 +700,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Ongeldig" xfId="1" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -912,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,13 +1039,13 @@
     <col min="6" max="6" width="20.140625" style="10" customWidth="1"/>
     <col min="7" max="7" width="24" style="11" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="40.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
@@ -956,12 +1067,17 @@
       <c r="H1" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>162</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -978,12 +1094,17 @@
       <c r="H2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1000,8 +1121,11 @@
       <c r="H3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1026,8 +1150,11 @@
       <c r="H4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1052,8 +1179,11 @@
       <c r="H5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1076,8 +1206,11 @@
       <c r="H6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1100,8 +1233,11 @@
       <c r="H7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1124,8 +1260,11 @@
       <c r="H8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>41</v>
       </c>
@@ -1145,8 +1284,11 @@
       <c r="H9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>11</v>
@@ -1162,8 +1304,11 @@
       <c r="H10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -1180,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="7" t="s">
         <v>11</v>
@@ -1197,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -1215,8 +1360,11 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="8" t="s">
         <v>12</v>
@@ -1234,8 +1382,11 @@
       <c r="H14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
@@ -1253,8 +1404,11 @@
       <c r="H15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -1272,8 +1426,11 @@
       <c r="H16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -1291,8 +1448,11 @@
       <c r="H17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -1310,8 +1470,11 @@
       <c r="H18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
         <v>13</v>
@@ -1328,7 +1491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="9" t="s">
         <v>13</v>
@@ -1345,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -1362,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1370,8 +1533,10 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1549,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>47</v>
       </c>
@@ -1400,7 +1565,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>51</v>
       </c>
@@ -1423,10 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>52</v>
       </c>
@@ -1449,10 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
@@ -1475,10 +1634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>93</v>
       </c>
@@ -1501,10 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>54</v>
       </c>
@@ -1525,10 +1678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>55</v>
       </c>
@@ -1549,10 +1699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>57</v>
       </c>
@@ -1573,10 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>58</v>
       </c>
@@ -1597,10 +1741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>12</v>
-      </c>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
         <v>59</v>
       </c>
@@ -1621,10 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>13</v>
-      </c>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>60</v>
       </c>
@@ -1645,7 +1783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
         <v>56</v>
       </c>
@@ -1664,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
         <v>61</v>
       </c>
@@ -1683,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
         <v>62</v>
       </c>
@@ -1702,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
         <v>50</v>
       </c>
@@ -1722,8 +1860,11 @@
       <c r="H38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>50</v>
       </c>
@@ -1743,8 +1884,11 @@
       <c r="H39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>50</v>
       </c>
@@ -1764,8 +1908,11 @@
       <c r="H40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
         <v>50</v>
       </c>
@@ -1785,8 +1932,11 @@
       <c r="H41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>50</v>
       </c>
@@ -1806,8 +1956,11 @@
       <c r="H42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>50</v>
       </c>
@@ -1827,8 +1980,11 @@
       <c r="H43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
         <v>50</v>
       </c>
@@ -1848,8 +2004,11 @@
       <c r="H44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
         <v>122</v>
       </c>
@@ -1868,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>122</v>
       </c>
@@ -1887,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
         <v>122</v>
       </c>
@@ -1906,13 +2065,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
         <v>46</v>
       </c>
@@ -1928,7 +2087,7 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
         <v>47</v>
       </c>
@@ -1938,11 +2097,13 @@
       <c r="D50" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +2124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
         <v>48</v>
       </c>
@@ -2003,7 +2164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
         <v>49</v>
       </c>
@@ -2022,7 +2183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C55" s="7" t="s">
         <v>11</v>
       </c>
@@ -2036,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C56" s="7" t="s">
         <v>11</v>
       </c>
@@ -2050,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
@@ -2064,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
@@ -2081,8 +2242,11 @@
       <c r="H58">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C59" s="8" t="s">
         <v>12</v>
       </c>
@@ -2090,45 +2254,52 @@
         <v>18</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="F59" s="16"/>
-      <c r="G59" s="16">
-        <v>3</v>
-      </c>
-      <c r="H59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>13</v>
+      <c r="G59" s="16"/>
+      <c r="J59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
-      <c r="H60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
-        <v>13</v>
+      <c r="J60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="16">
+        <v>3</v>
+      </c>
       <c r="H61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
         <v>13</v>
       </c>
@@ -2142,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>13</v>
       </c>
@@ -2156,133 +2327,125 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E64" s="14"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
+      <c r="H64">
+        <v>6</v>
+      </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
+      <c r="C65" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
+      <c r="H65">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="E66" s="14"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F67" s="16"/>
-      <c r="G67" s="16">
-        <v>8</v>
-      </c>
-      <c r="H67">
-        <v>8</v>
-      </c>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F68" s="16"/>
-      <c r="G68" s="16">
-        <v>8</v>
-      </c>
-      <c r="H68">
-        <v>8</v>
-      </c>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="16">
+        <v>8</v>
+      </c>
       <c r="H69">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="16">
+        <v>8</v>
+      </c>
       <c r="H70">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
@@ -2292,16 +2455,16 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -2311,16 +2474,16 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -2330,16 +2493,16 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -2348,31 +2511,41 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="7" t="s">
-        <v>11</v>
+      <c r="B75" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="14"/>
+      <c r="E75" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="7" t="s">
-        <v>11</v>
+      <c r="B76" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -2404,42 +2577,34 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="8" t="s">
-        <v>12</v>
+      <c r="C79" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E79" s="14"/>
       <c r="F79" s="16"/>
-      <c r="G79" s="16">
-        <v>8</v>
-      </c>
+      <c r="G79" s="16"/>
       <c r="H79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C80" s="8" t="s">
-        <v>12</v>
+      <c r="C80" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E80" s="14"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16">
-        <v>8</v>
-      </c>
+      <c r="G80" s="16"/>
       <c r="H80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2612,7 @@
         <v>17</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16">
@@ -2456,8 +2621,11 @@
       <c r="H81">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C82" s="8" t="s">
         <v>12</v>
       </c>
@@ -2465,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16">
@@ -2474,16 +2642,19 @@
       <c r="H82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C83" s="8" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F83" s="16"/>
       <c r="G83" s="16">
@@ -2492,16 +2663,19 @@
       <c r="H83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C84" s="8" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
@@ -2510,15 +2684,20 @@
       <c r="H84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C85" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E85" s="14"/>
+      <c r="E85" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
         <v>8</v>
@@ -2526,8 +2705,11 @@
       <c r="H85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C86" s="8" t="s">
         <v>134</v>
       </c>
@@ -2535,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
@@ -2544,16 +2726,19 @@
       <c r="H86">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C87" s="8" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
@@ -2562,36 +2747,53 @@
       <c r="H87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
-        <v>13</v>
+      <c r="J87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="14"/>
+      <c r="E88" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="16">
+        <v>8</v>
+      </c>
       <c r="H88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="J88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="16">
+        <v>8</v>
+      </c>
       <c r="H89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
         <v>13</v>
       </c>
@@ -2605,172 +2807,197 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E91" s="14"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
+      <c r="H91">
         <v>6</v>
       </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D92" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="C93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E93" s="14"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>7</v>
+        <v>165</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="F94" s="16"/>
-      <c r="G94" s="16">
-        <v>4</v>
-      </c>
-      <c r="H94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>7</v>
+        <v>166</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="F95" s="16"/>
-      <c r="G95" s="16">
-        <v>4</v>
-      </c>
-      <c r="H95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>128</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="14"/>
-      <c r="C98" s="6" t="s">
-        <v>10</v>
+      <c r="G97" s="16">
+        <v>4</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="6" t="s">
-        <v>10</v>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="14"/>
-      <c r="C100" s="7" t="s">
-        <v>11</v>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="14"/>
-      <c r="C101" s="7" t="s">
-        <v>11</v>
+      <c r="G100" s="16">
+        <v>4</v>
+      </c>
+      <c r="H100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="14"/>
-      <c r="C102" s="7" t="s">
-        <v>11</v>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="14"/>
+      <c r="E102" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
-      <c r="C103" s="7" t="s">
-        <v>11</v>
+      <c r="C103" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>19</v>
@@ -2779,68 +3006,58 @@
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>12</v>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="14"/>
+      <c r="C104" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E104" s="14"/>
       <c r="F104" s="16"/>
-      <c r="G104" s="16">
-        <v>6</v>
-      </c>
-      <c r="H104">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>12</v>
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="14"/>
+      <c r="C105" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E105" s="14"/>
       <c r="F105" s="16"/>
-      <c r="G105" s="16">
-        <v>6</v>
-      </c>
-      <c r="H105">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="16"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
+      <c r="C106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E106" s="14"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
+      <c r="C107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E107" s="14"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="14"/>
-      <c r="C108" s="9" t="s">
-        <v>13</v>
+      <c r="C108" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>19</v>
@@ -2849,162 +3066,179 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="14"/>
-      <c r="C109" s="9" t="s">
-        <v>13</v>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="14"/>
+      <c r="E109" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="14"/>
-      <c r="C110" s="9" t="s">
-        <v>13</v>
+      <c r="G109" s="16">
+        <v>6</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="J109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E111" s="14"/>
+      <c r="G110" s="16">
+        <v>6</v>
+      </c>
+      <c r="H110">
+        <v>6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="14"/>
+      <c r="C111" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C112" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="J111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
       <c r="F112" s="16"/>
-      <c r="G112" s="16">
-        <v>8</v>
-      </c>
-      <c r="H112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C113" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
       <c r="F113" s="16"/>
-      <c r="G113" s="16">
-        <v>9</v>
-      </c>
-      <c r="H113">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C114" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="14"/>
+      <c r="C114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="14"/>
       <c r="F114" s="16"/>
-      <c r="G114" s="16">
-        <v>9</v>
-      </c>
-      <c r="H114">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="16"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E115" s="14"/>
       <c r="F115" s="16"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C116" s="8" t="s">
-        <v>12</v>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116" s="14"/>
+      <c r="C116" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E116" s="14"/>
       <c r="F116" s="16"/>
-      <c r="G116" s="16">
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E117" s="14"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16">
+        <v>8</v>
+      </c>
+      <c r="H118">
         <v>7</v>
       </c>
-      <c r="H116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C117" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16">
-        <v>7</v>
-      </c>
-      <c r="H117">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E118" s="14"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>141</v>
-      </c>
+      <c r="J118" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C119" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H119">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="E120" s="14" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="F120" s="16"/>
       <c r="G120" s="16">
@@ -3013,379 +3247,536 @@
       <c r="H120">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C121" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="E121" s="14" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="F121" s="16"/>
-      <c r="G121" s="16">
-        <v>9</v>
-      </c>
-      <c r="H121">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="16"/>
+      <c r="J121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C122" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="E122" s="14" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="F122" s="16"/>
-      <c r="G122" s="16">
-        <v>8</v>
-      </c>
-      <c r="H122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="16"/>
+      <c r="J122" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="E123" s="14" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="F123" s="16"/>
-      <c r="G123" s="16">
-        <v>7</v>
-      </c>
-      <c r="H123">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="16"/>
+      <c r="J123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
       <c r="E124" s="14"/>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>121</v>
-      </c>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="F125" s="16"/>
       <c r="G125" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H125">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C126" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H126">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C127" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>42</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E127" s="14"/>
       <c r="F127" s="16"/>
-      <c r="G127" s="16">
-        <v>6</v>
-      </c>
-      <c r="H127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="16"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C128" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
         <v>6</v>
       </c>
       <c r="H128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C129" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H129">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E131" s="14"/>
+      <c r="J130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>144</v>
-      </c>
+      <c r="G131" s="16">
+        <v>8</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C132" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D132" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="E132" s="14" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E133" s="14"/>
       <c r="F133" s="16"/>
-      <c r="G133" s="16">
-        <v>9</v>
-      </c>
-      <c r="H133">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>121</v>
+      </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D134" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E134" s="14" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C135" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D135" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E135" s="14" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16">
+        <v>6</v>
+      </c>
+      <c r="H135">
         <v>7</v>
       </c>
-      <c r="H135">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J135" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C136" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D136" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E136" s="14" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="16">
+        <v>6</v>
+      </c>
+      <c r="H136">
         <v>7</v>
       </c>
-      <c r="H136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D137" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E137" s="14" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H137">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C138" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D138" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E138" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>7</v>
+      </c>
+      <c r="J138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C139" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16">
+        <v>6</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E140" s="14"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>8</v>
+      </c>
+      <c r="J141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C142" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="J142" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16">
+        <v>9</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="J143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C144" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16">
+        <v>7</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="J144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C145" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16">
+        <v>7</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="J145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="18"/>
+      <c r="C146" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F146" s="21"/>
+      <c r="G146" s="21">
+        <v>9</v>
+      </c>
+      <c r="H146" s="19">
+        <v>8</v>
+      </c>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="18"/>
+      <c r="C147" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147" s="21"/>
+      <c r="G147" s="21">
         <v>4</v>
       </c>
-      <c r="H138">
+      <c r="H147" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E139" s="14"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="10"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="10"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I147" s="19"/>
+      <c r="J147" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="16"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
-    </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
-    </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E160" s="14"/>
       <c r="F160" s="14"/>
     </row>
@@ -3412,6 +3803,42 @@
     <row r="166" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G85">

--- a/Assetlist/Asset List GameLab2.xlsx
+++ b/Assetlist/Asset List GameLab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="186">
   <si>
     <t>Weapons</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Lootchest</t>
   </si>
   <si>
-    <t>Shop</t>
-  </si>
-  <si>
     <t>Harold/Danial</t>
   </si>
   <si>
@@ -557,6 +554,27 @@
   </si>
   <si>
     <t>Engery</t>
+  </si>
+  <si>
+    <t>Shop Spawn</t>
+  </si>
+  <si>
+    <t>Treasure Room Spawn</t>
+  </si>
+  <si>
+    <t>Treasure funcinaliteit</t>
+  </si>
+  <si>
+    <t>Shop funcinaliteit</t>
+  </si>
+  <si>
+    <t>I. Animaties</t>
+  </si>
+  <si>
+    <t>J. Game genarel</t>
+  </si>
+  <si>
+    <t>H. HUD</t>
   </si>
 </sst>
 </file>
@@ -1023,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1283,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
       <c r="B9" s="14" t="s">
         <v>41</v>
       </c>
@@ -1289,6 +1310,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>11</v>
@@ -1309,6 +1333,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
       <c r="B11" s="14"/>
       <c r="C11" s="7" t="s">
         <v>11</v>
@@ -2254,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -2270,7 +2297,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -3160,9 +3187,6 @@
       <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>167</v>
-      </c>
       <c r="B115" s="14"/>
       <c r="C115" s="9" t="s">
         <v>13</v>
@@ -3213,6 +3237,9 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>167</v>
+      </c>
       <c r="C119" s="8" t="s">
         <v>12</v>
       </c>
@@ -3237,6 +3264,9 @@
       <c r="C120" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D120" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E120" s="14" t="s">
         <v>137</v>
       </c>
@@ -3255,11 +3285,19 @@
       <c r="C121" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D121" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E121" s="14" t="s">
         <v>173</v>
       </c>
       <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
+      <c r="G121" s="16">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>5</v>
+      </c>
       <c r="J121" t="s">
         <v>169</v>
       </c>
@@ -3268,55 +3306,74 @@
       <c r="C122" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D122" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E122" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>8</v>
+      </c>
+      <c r="J122" t="s">
         <v>176</v>
-      </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="J122" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C123" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D123" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="E123" s="14" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="16">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
       <c r="J123" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="14"/>
+      <c r="C124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>181</v>
+      </c>
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
+      <c r="J124" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C125" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="F125" s="16"/>
-      <c r="G125" s="16">
-        <v>7</v>
-      </c>
-      <c r="H125">
-        <v>8</v>
-      </c>
+      <c r="G125" s="16"/>
       <c r="J125" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -3324,20 +3381,20 @@
         <v>12</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H126">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J126" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,20 +3407,20 @@
         <v>12</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H128">
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -3371,42 +3428,26 @@
         <v>12</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
+        <v>7</v>
+      </c>
+      <c r="H129">
         <v>9</v>
       </c>
-      <c r="H129">
-        <v>8</v>
-      </c>
       <c r="J129" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C130" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E130" s="14"/>
       <c r="F130" s="16"/>
-      <c r="G130" s="16">
-        <v>9</v>
-      </c>
-      <c r="H130">
-        <v>8</v>
-      </c>
-      <c r="J130" t="s">
-        <v>170</v>
-      </c>
+      <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C131" s="8" t="s">
@@ -3416,20 +3457,23 @@
         <v>115</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="F131" s="16"/>
       <c r="G131" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H131">
         <v>8</v>
       </c>
       <c r="J131" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
       <c r="C132" s="8" t="s">
         <v>12</v>
       </c>
@@ -3437,11 +3481,11 @@
         <v>115</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H132">
         <v>8</v>
@@ -3451,32 +3495,45 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E133" s="14"/>
+      <c r="C133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
+      <c r="G133" s="16">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>121</v>
-      </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -3484,42 +3541,29 @@
         <v>12</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H135">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J135" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C136" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E136" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="A136" t="s">
+        <v>121</v>
+      </c>
+      <c r="E136" s="14"/>
       <c r="F136" s="16"/>
-      <c r="G136" s="16">
-        <v>6</v>
-      </c>
-      <c r="H136">
-        <v>7</v>
-      </c>
-      <c r="J136" t="s">
-        <v>177</v>
-      </c>
+      <c r="G136" s="16"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C137" s="8" t="s">
@@ -3529,7 +3573,7 @@
         <v>116</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16">
@@ -3539,7 +3583,7 @@
         <v>7</v>
       </c>
       <c r="J137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -3550,7 +3594,7 @@
         <v>116</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
@@ -3560,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="J138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,91 +3615,100 @@
         <v>116</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16">
         <v>6</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J139" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E140" s="14"/>
+      <c r="C140" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
+      <c r="G140" s="16">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>7</v>
+      </c>
+      <c r="J140" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D141" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E141" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J141" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C142" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D142" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E142" s="14" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H142">
         <v>8</v>
       </c>
       <c r="J142" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C143" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="E143" s="14"/>
       <c r="F143" s="16"/>
-      <c r="G143" s="16">
-        <v>9</v>
-      </c>
-      <c r="H143">
-        <v>8</v>
-      </c>
-      <c r="J143" t="s">
-        <v>169</v>
-      </c>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C144" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H144">
         <v>8</v>
@@ -3669,11 +3722,11 @@
         <v>12</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H145">
         <v>8</v>
@@ -3683,78 +3736,120 @@
       </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="18"/>
-      <c r="C146" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F146" s="21"/>
-      <c r="G146" s="21">
+      <c r="C146" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16">
         <v>9</v>
       </c>
-      <c r="H146" s="19">
-        <v>8</v>
-      </c>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19" t="s">
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="J146" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="18"/>
-      <c r="C147" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="20" t="s">
+      <c r="C147" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16">
+        <v>7</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="J147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="18"/>
+      <c r="C148" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16">
+        <v>7</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="J148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C149" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F149" s="21"/>
+      <c r="G149" s="21">
+        <v>9</v>
+      </c>
+      <c r="H149" s="19">
+        <v>8</v>
+      </c>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C150" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="18"/>
+      <c r="E150" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F147" s="21"/>
-      <c r="G147" s="21">
+      <c r="F150" s="21"/>
+      <c r="G150" s="21">
         <v>4</v>
       </c>
-      <c r="H147" s="19">
+      <c r="H150" s="19">
         <v>4</v>
       </c>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19" t="s">
+      <c r="I150" s="19"/>
+      <c r="J150" s="19" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E148" s="14"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="10"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="10"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="10"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
+      <c r="F151" s="16"/>
       <c r="G151" s="10"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
+      <c r="G153" s="10"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
+      <c r="G154" s="10"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E155" s="14"/>
@@ -3839,6 +3934,18 @@
     <row r="175" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G85">

--- a/Assetlist/Asset List GameLab2.xlsx
+++ b/Assetlist/Asset List GameLab2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="197">
   <si>
     <t>Weapons</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Gun2_004</t>
   </si>
   <si>
-    <t>Gun1_007</t>
-  </si>
-  <si>
     <t>Gun3_004</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
     <t>Gun3_006</t>
   </si>
   <si>
-    <t>Gun2_007</t>
-  </si>
-  <si>
-    <t>Gun3_007</t>
-  </si>
-  <si>
     <t>Deal Dmg</t>
   </si>
   <si>
@@ -575,6 +566,48 @@
   </si>
   <si>
     <t>H. HUD</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>PickUp</t>
+  </si>
+  <si>
+    <t>LootChest</t>
+  </si>
+  <si>
+    <t>HallwaySpawn</t>
+  </si>
+  <si>
+    <t>sven</t>
+  </si>
+  <si>
+    <t>Hallway</t>
+  </si>
+  <si>
+    <t>Hallway_003</t>
+  </si>
+  <si>
+    <t>LootChestOpen_007</t>
+  </si>
+  <si>
+    <t>Movement_007</t>
+  </si>
+  <si>
+    <t>Combat_007</t>
+  </si>
+  <si>
+    <t>Interactie_007</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,16 +1110,16 @@
         <v>15</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1094,7 +1127,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1121,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1284,7 +1317,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>41</v>
@@ -1311,9 +1344,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1359,9 @@
         <v>30</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
       <c r="H10">
         <v>5</v>
       </c>
@@ -1334,9 +1371,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="14"/>
+        <v>181</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1347,74 +1386,72 @@
         <v>30</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>5</v>
+      </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>5</v>
+      </c>
       <c r="H12">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1422,29 +1459,31 @@
         <v>4</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16">
         <v>8</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16">
@@ -1454,11 +1493,13 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16">
@@ -1476,19 +1517,21 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16">
@@ -1498,41 +1541,55 @@
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="9" t="s">
-        <v>13</v>
+      <c r="B19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <v>8</v>
+      </c>
       <c r="H19">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <v>8</v>
+      </c>
       <c r="H20">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1554,93 +1611,81 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
+      <c r="H22">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
+      <c r="B23" s="14"/>
+      <c r="C23" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
+      <c r="H23">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="B24" s="14"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="16">
-        <v>4</v>
-      </c>
-      <c r="G25" s="16">
-        <v>8</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="16">
-        <v>4</v>
-      </c>
-      <c r="G26" s="16">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -1655,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>9</v>
@@ -1663,7 +1708,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -1672,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F28" s="16">
         <v>4</v>
@@ -1685,50 +1730,54 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
+      <c r="B29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F29" s="16">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="G29" s="16">
+        <v>7</v>
+      </c>
       <c r="H29">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
+      <c r="B30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F30" s="16">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="G30" s="16">
+        <v>7</v>
+      </c>
       <c r="H30">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>8</v>
@@ -1749,10 +1798,10 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>16</v>
@@ -1761,7 +1810,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32">
@@ -1770,10 +1819,10 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>16</v>
@@ -1782,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="F33" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33">
@@ -1791,7 +1840,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -1812,10 +1861,10 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>16</v>
@@ -1823,18 +1872,20 @@
       <c r="E35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>16</v>
@@ -1842,15 +1893,17 @@
       <c r="E36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="16"/>
+      <c r="F36" s="16">
+        <v>3</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>11</v>
@@ -1869,74 +1922,57 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F38" s="16"/>
-      <c r="G38" s="16">
-        <v>8</v>
-      </c>
+      <c r="G38" s="16"/>
       <c r="H38">
-        <v>8</v>
-      </c>
-      <c r="J38" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="E39" s="14"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="16">
-        <v>8</v>
-      </c>
+      <c r="G39" s="16"/>
       <c r="H39">
-        <v>8</v>
-      </c>
-      <c r="J39" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>12</v>
+        <v>185</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F40" s="16"/>
-      <c r="G40" s="16">
-        <v>8</v>
-      </c>
+      <c r="G40" s="16"/>
       <c r="H40">
-        <v>8</v>
-      </c>
-      <c r="J40" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1950,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16">
@@ -1960,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -1974,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -1984,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -1998,17 +2034,17 @@
         <v>16</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
         <v>8</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -2022,290 +2058,319 @@
         <v>16</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
         <v>8</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="16">
+        <v>8</v>
+      </c>
       <c r="H45">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="16">
+        <v>8</v>
+      </c>
       <c r="H46">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="E48" s="14"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
+      <c r="H48">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
+      <c r="H49">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
+      <c r="H50">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="B51" s="15"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="16">
-        <v>3</v>
-      </c>
-      <c r="H51">
-        <v>7</v>
-      </c>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>7</v>
+      <c r="B52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F52" s="16"/>
-      <c r="G52" s="16">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>7</v>
-      </c>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>8</v>
+      <c r="B53" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
-      <c r="H53">
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="16">
+        <v>3</v>
+      </c>
       <c r="H54">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="7" t="s">
-        <v>11</v>
+      <c r="B55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="16">
+        <v>3</v>
+      </c>
       <c r="H55">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="7" t="s">
-        <v>11</v>
+      <c r="B56" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
       <c r="H56">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="7" t="s">
-        <v>11</v>
+      <c r="B57" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="14"/>
+      <c r="E57" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
       <c r="H57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="8" t="s">
-        <v>12</v>
+      <c r="B58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="E58" s="14"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="16">
-        <v>3</v>
-      </c>
+      <c r="G58" s="16"/>
       <c r="H58">
-        <v>7</v>
-      </c>
-      <c r="J58" t="s">
-        <v>169</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="8" t="s">
-        <v>12</v>
+      <c r="B59" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="E59" s="14"/>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
-      <c r="J59" t="s">
-        <v>169</v>
+      <c r="H59">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="8" t="s">
-        <v>12</v>
+      <c r="B60" s="14"/>
+      <c r="C60" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="E60" s="14"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
-      <c r="J60" t="s">
-        <v>169</v>
+      <c r="H60">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
@@ -2313,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16">
@@ -2323,52 +2388,73 @@
         <v>7</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
-        <v>13</v>
+      <c r="B62" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="14"/>
+      <c r="E62" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62">
-        <v>6</v>
+      <c r="J62" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
-        <v>13</v>
+      <c r="B63" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
-      <c r="H63">
-        <v>6</v>
+      <c r="J63" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
-        <v>13</v>
+      <c r="B64" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="16">
+        <v>3</v>
+      </c>
       <c r="H64">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="J64" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="14"/>
       <c r="C65" s="9" t="s">
         <v>13</v>
       </c>
@@ -2383,153 +2469,142 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="14"/>
+      <c r="C66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="E66" s="14"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
+      <c r="H66">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
+      <c r="B67" s="14"/>
+      <c r="C67" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>160</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E67" s="14"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
+      <c r="H67">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
+      <c r="B68" s="14"/>
+      <c r="C68" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>66</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E68" s="14"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
+      <c r="H68">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="B69" s="14"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="16">
-        <v>8</v>
-      </c>
-      <c r="H69">
-        <v>8</v>
-      </c>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="F70" s="16"/>
-      <c r="G70" s="16">
-        <v>8</v>
-      </c>
-      <c r="H70">
-        <v>8</v>
-      </c>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71">
-        <v>8</v>
-      </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="16">
+        <v>8</v>
+      </c>
       <c r="H72">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="16">
+        <v>8</v>
+      </c>
       <c r="H73">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -2539,16 +2614,16 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
@@ -2558,16 +2633,16 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D76" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
@@ -2576,48 +2651,66 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="7" t="s">
-        <v>11</v>
+      <c r="B77" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="7" t="s">
-        <v>11</v>
+      <c r="B78" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
       <c r="H78">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="7" t="s">
-        <v>11</v>
+      <c r="B79" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
       <c r="H79">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="C80" s="7" t="s">
         <v>11</v>
       </c>
@@ -2632,69 +2725,57 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C81" s="8" t="s">
-        <v>12</v>
+      <c r="B81" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="E81" s="14"/>
       <c r="F81" s="16"/>
-      <c r="G81" s="16">
-        <v>8</v>
-      </c>
+      <c r="G81" s="16"/>
       <c r="H81">
-        <v>8</v>
-      </c>
-      <c r="J81" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C82" s="8" t="s">
-        <v>12</v>
+      <c r="B82" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="E82" s="14"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16">
-        <v>8</v>
-      </c>
+      <c r="G82" s="16"/>
       <c r="H82">
-        <v>8</v>
-      </c>
-      <c r="J82" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="8" t="s">
-        <v>12</v>
+      <c r="C83" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="E83" s="14"/>
       <c r="F83" s="16"/>
-      <c r="G83" s="16">
-        <v>8</v>
-      </c>
+      <c r="G83" s="16"/>
       <c r="H83">
-        <v>8</v>
-      </c>
-      <c r="J83" t="s">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="C84" s="8" t="s">
         <v>12</v>
       </c>
@@ -2702,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16">
@@ -2712,18 +2793,21 @@
         <v>8</v>
       </c>
       <c r="J84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="C85" s="8" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16">
@@ -2733,18 +2817,21 @@
         <v>8</v>
       </c>
       <c r="J85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="C86" s="8" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16">
@@ -2754,18 +2841,21 @@
         <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="C87" s="8" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="F87" s="16"/>
       <c r="G87" s="16">
@@ -2775,18 +2865,21 @@
         <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C88" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16">
@@ -2796,18 +2889,21 @@
         <v>8</v>
       </c>
       <c r="J88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="C89" s="8" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="F89" s="16"/>
       <c r="G89" s="16">
@@ -2817,160 +2913,179 @@
         <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
-        <v>13</v>
+      <c r="B90" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="14"/>
+      <c r="E90" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
+      <c r="G90" s="16">
+        <v>8</v>
+      </c>
       <c r="H90">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J90" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
-        <v>13</v>
+      <c r="B91" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
+      <c r="G91" s="16">
+        <v>8</v>
+      </c>
       <c r="H91">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J91" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
-        <v>13</v>
+      <c r="B92" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="14"/>
+      <c r="E92" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
+      <c r="G92" s="16">
+        <v>8</v>
+      </c>
       <c r="H92">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J92" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E93" s="14"/>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
+      <c r="H93">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>6</v>
+      <c r="C94" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>155</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E94" s="14"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
+      <c r="H94">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>6</v>
+      <c r="C95" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>154</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E95" s="14"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
+      <c r="H95">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="E96" s="14"/>
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F97" s="16"/>
-      <c r="G97" s="16">
-        <v>4</v>
-      </c>
-      <c r="H97">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>7</v>
+        <v>163</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -2979,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F100" s="16"/>
       <c r="G100" s="16">
@@ -2989,102 +3104,127 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>153</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F101" s="16"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>8</v>
+        <v>154</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="14"/>
-      <c r="C103" s="6" t="s">
-        <v>10</v>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="14"/>
+      <c r="E103" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="14"/>
-      <c r="C104" s="6" t="s">
-        <v>10</v>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="14"/>
+      <c r="E104" s="14" t="s">
+        <v>191</v>
+      </c>
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="14"/>
-      <c r="C105" s="7" t="s">
-        <v>11</v>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="14"/>
+      <c r="E105" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="14"/>
-      <c r="C106" s="7" t="s">
-        <v>11</v>
+      <c r="G105" s="16">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="14"/>
+      <c r="E106" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="14"/>
-      <c r="C107" s="7" t="s">
-        <v>11</v>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="14"/>
+      <c r="E107" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="F107" s="16"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="14"/>
-      <c r="C108" s="7" t="s">
-        <v>11</v>
+      <c r="C108" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>19</v>
@@ -3093,237 +3233,197 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>12</v>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="14"/>
+      <c r="C109" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="E109" s="14"/>
       <c r="F109" s="16"/>
-      <c r="G109" s="16">
-        <v>6</v>
-      </c>
-      <c r="H109">
-        <v>6</v>
-      </c>
-      <c r="J109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>12</v>
+        <v>193</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E110" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="E110" s="14"/>
       <c r="F110" s="16"/>
-      <c r="G110" s="16">
-        <v>6</v>
-      </c>
-      <c r="H110">
-        <v>6</v>
-      </c>
-      <c r="J110" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="14"/>
-      <c r="C111" s="8" t="s">
-        <v>12</v>
+      <c r="C111" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="E111" s="14"/>
       <c r="F111" s="16"/>
       <c r="G111" s="16"/>
-      <c r="J111" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
+      <c r="C112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E112" s="14"/>
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
+      <c r="C113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="E113" s="14"/>
       <c r="F113" s="16"/>
       <c r="G113" s="16"/>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-      <c r="C114" s="9" t="s">
-        <v>13</v>
+      <c r="B114" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="16">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="14"/>
-      <c r="C115" s="9" t="s">
-        <v>13</v>
+      <c r="B115" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="14"/>
+      <c r="E115" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
+      <c r="G115" s="16">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="J115" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B116" s="14"/>
-      <c r="C116" s="9" t="s">
-        <v>13</v>
+      <c r="C116" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="14"/>
+      <c r="E116" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="16"/>
       <c r="G117" s="16"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
       <c r="F118" s="16"/>
-      <c r="G118" s="16">
-        <v>8</v>
-      </c>
-      <c r="H118">
-        <v>7</v>
-      </c>
-      <c r="J118" t="s">
-        <v>172</v>
-      </c>
+      <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>12</v>
+      <c r="B119" s="14"/>
+      <c r="C119" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E119" s="14"/>
       <c r="F119" s="16"/>
-      <c r="G119" s="16">
-        <v>9</v>
-      </c>
-      <c r="H119">
-        <v>8</v>
-      </c>
-      <c r="J119" t="s">
-        <v>172</v>
-      </c>
+      <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C120" s="8" t="s">
-        <v>12</v>
+      <c r="B120" s="14"/>
+      <c r="C120" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>137</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E120" s="14"/>
       <c r="F120" s="16"/>
-      <c r="G120" s="16">
-        <v>9</v>
-      </c>
-      <c r="H120">
-        <v>8</v>
-      </c>
-      <c r="J120" t="s">
-        <v>172</v>
-      </c>
+      <c r="G120" s="16"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C121" s="8" t="s">
-        <v>12</v>
+      <c r="B121" s="14"/>
+      <c r="C121" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>173</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E121" s="14"/>
       <c r="F121" s="16"/>
-      <c r="G121" s="16">
-        <v>5</v>
-      </c>
-      <c r="H121">
-        <v>5</v>
-      </c>
-      <c r="J121" t="s">
-        <v>169</v>
-      </c>
+      <c r="G121" s="16"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="E122" s="14"/>
       <c r="F122" s="16"/>
-      <c r="G122" s="16">
-        <v>9</v>
-      </c>
-      <c r="H122">
-        <v>8</v>
-      </c>
-      <c r="J122" t="s">
-        <v>176</v>
-      </c>
+      <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="C123" s="8" t="s">
         <v>12</v>
       </c>
@@ -3331,20 +3431,23 @@
         <v>27</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="F123" s="16"/>
       <c r="G123" s="16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J123" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="C124" s="8" t="s">
         <v>12</v>
       </c>
@@ -3352,15 +3455,23 @@
         <v>27</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
+      <c r="G124" s="16">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>8</v>
+      </c>
       <c r="J124" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="C125" s="8" t="s">
         <v>12</v>
       </c>
@@ -3368,15 +3479,23 @@
         <v>27</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
+      <c r="G125" s="16">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>8</v>
+      </c>
       <c r="J125" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="C126" s="8" t="s">
         <v>12</v>
       </c>
@@ -3384,7 +3503,7 @@
         <v>27</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="F126" s="16"/>
       <c r="G126" s="16">
@@ -3394,94 +3513,125 @@
         <v>8</v>
       </c>
       <c r="J126" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E127" s="14"/>
+      <c r="B127" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
+      <c r="G127" s="16">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>5</v>
+      </c>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="C128" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="F128" s="16"/>
       <c r="G128" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H128">
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="14" t="s">
+        <v>177</v>
+      </c>
       <c r="C129" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="F129" s="16"/>
       <c r="G129" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J129" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E130" s="14"/>
+      <c r="B130" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="C131" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="F131" s="16"/>
-      <c r="G131" s="16">
-        <v>6</v>
-      </c>
-      <c r="H131">
-        <v>8</v>
-      </c>
-      <c r="J131" t="s">
-        <v>170</v>
-      </c>
+      <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>141</v>
+      <c r="B132" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="F132" s="16"/>
       <c r="G132" s="16">
@@ -3491,389 +3641,520 @@
         <v>8</v>
       </c>
       <c r="J132" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>0</v>
-      </c>
+      <c r="E133" s="14"/>
       <c r="F133" s="16"/>
-      <c r="G133" s="16">
-        <v>9</v>
-      </c>
-      <c r="H133">
-        <v>8</v>
-      </c>
-      <c r="J133" t="s">
-        <v>170</v>
-      </c>
+      <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="C134" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F134" s="16"/>
       <c r="G134" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H134">
         <v>8</v>
       </c>
       <c r="J134" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="C135" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F135" s="16"/>
       <c r="G135" s="16">
         <v>7</v>
       </c>
       <c r="H135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J135" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>121</v>
-      </c>
       <c r="E136" s="14"/>
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="C137" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F137" s="16"/>
       <c r="G137" s="16">
         <v>6</v>
       </c>
       <c r="H137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J137" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F138" s="16"/>
       <c r="G138" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J138" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="14" t="s">
+        <v>0</v>
+      </c>
       <c r="C139" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F139" s="16"/>
       <c r="G139" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J139" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="C140" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F140" s="16"/>
       <c r="G140" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J140" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F141" s="16"/>
       <c r="G141" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J141" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C142" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E142" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="E142" s="14"/>
       <c r="F142" s="16"/>
-      <c r="G142" s="16">
-        <v>6</v>
-      </c>
-      <c r="H142">
-        <v>8</v>
-      </c>
-      <c r="J142" t="s">
-        <v>176</v>
-      </c>
+      <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="E143" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
+      <c r="G143" s="16">
+        <v>6</v>
+      </c>
+      <c r="H143">
+        <v>7</v>
+      </c>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="14" t="s">
+        <v>115</v>
+      </c>
       <c r="C144" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D144" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E144" s="14" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B145" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="C145" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D145" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E145" s="14" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="C146" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D146" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E146" s="14" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="18"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="C147" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D147" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E147" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="16">
+        <v>6</v>
+      </c>
+      <c r="H147">
         <v>7</v>
       </c>
-      <c r="H147">
-        <v>8</v>
-      </c>
       <c r="J147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="18"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="C148" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="D148" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="E148" s="14" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="16">
+        <v>6</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="J148" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E149" s="14"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>8</v>
+      </c>
+      <c r="J150" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B151" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16">
+        <v>9</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+      <c r="J151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16">
+        <v>9</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+      <c r="J152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16">
         <v>7</v>
       </c>
-      <c r="H148">
-        <v>8</v>
-      </c>
-      <c r="J148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C149" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F149" s="21"/>
-      <c r="G149" s="21">
+      <c r="H153">
+        <v>8</v>
+      </c>
+      <c r="J153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16">
+        <v>7</v>
+      </c>
+      <c r="H154">
+        <v>8</v>
+      </c>
+      <c r="J154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21">
         <v>9</v>
       </c>
-      <c r="H149" s="19">
-        <v>8</v>
-      </c>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C150" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F150" s="21"/>
-      <c r="G150" s="21">
+      <c r="H155" s="19">
+        <v>8</v>
+      </c>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="18"/>
+      <c r="E156" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F156" s="21"/>
+      <c r="G156" s="21">
         <v>4</v>
       </c>
-      <c r="H150" s="19">
+      <c r="H156" s="19">
         <v>4</v>
       </c>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E151" s="14"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="10"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="10"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="10"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="10"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I156" s="19"/>
+      <c r="J156" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="16"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E160" s="14"/>
       <c r="F160" s="14"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E161" s="14"/>
@@ -3946,6 +4227,30 @@
     <row r="178" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E178" s="14"/>
       <c r="F178" s="14"/>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G85">
